--- a/biology/Botanique/Baphia_pubescens/Baphia_pubescens.xlsx
+++ b/biology/Botanique/Baphia_pubescens/Baphia_pubescens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Baphia pubescens est une espèce de plantes de la famille des Fabaceae et du genre Baphia, présente en Afrique tropicale.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un petit arbre d'une hauteur comprise entre 6 et 15 m[2], brun-tomenteux, à fleurs blanches striées de jaune[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un petit arbre d'une hauteur comprise entre 6 et 15 m, brun-tomenteux, à fleurs blanches striées de jaune.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est présente en Afrique de l'Ouest, de la Guinée au Congo[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est présente en Afrique de l'Ouest, de la Guinée au Congo.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On la trouve dans les forêts humides et marécageuses[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On la trouve dans les forêts humides et marécageuses.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sous différentes formes, son écorce est utilisée en médecine traditionnelle, comme antirhumatismal ou comme diurétique. Son bois dense à grain fin est utilisé en menuiserie. Il prend une couleur rouge lorsqu'il est exposé au soleil. On en tire également un colorant[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sous différentes formes, son écorce est utilisée en médecine traditionnelle, comme antirhumatismal ou comme diurétique. Son bois dense à grain fin est utilisé en menuiserie. Il prend une couleur rouge lorsqu'il est exposé au soleil. On en tire également un colorant.
 </t>
         </is>
       </c>
